--- a/data/SampleData/tat-ca-san-pham.xlsx
+++ b/data/SampleData/tat-ca-san-pham.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Application\laragon\www\techshop\data\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Application\laragon\www\tekno\data\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25A660-CCC6-446A-A249-7E9144B85D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0B2E5-0F1D-43A2-8E3A-730814324DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="393">
   <si>
     <t>loaisanpham_id</t>
   </si>
@@ -1825,12 +1825,84 @@
 &lt;/tbody&gt;
 &lt;/table&gt;</t>
   </si>
+  <si>
+    <t>&lt;table style="border-collapse: collapse; width: 85.0822%; height: 38px; border-width: 0px; margin-left: auto; margin-right: auto;" border="1"&gt;&lt;colgroup&gt;&lt;col style="width: 100%;"&gt;&lt;/colgroup&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="border-width: 0px;"&gt;
+&lt;h3&gt;&lt;a title="Ổ ghi ASUS SDRW-08D2S-U LITE External/USB 2.0 đang b&amp;aacute;n tại Thế Giới Di Động" href="https://www.thegioididong.com/sp-293636" target="_blank" rel="noopener"&gt;Ổ ghi ASUS SDRW-08D2S-U LITE External/USB 2.0&lt;/a&gt;&amp;nbsp;với hỗ trợ M-DISC gi&amp;uacute;p tăng thời gian lưu trữ dữ liệu, tương th&amp;iacute;ch với hệ điều h&amp;agrave;nh Windows v&amp;agrave; macOS.&lt;/h3&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;&lt;a title="Tham khảo ổ cứng di động đang b&amp;aacute;n tr&amp;ecirc;n Thế Giới Di Động" href="https://www.thegioididong.com/o-cung-di-dong" target="_blank" rel="noopener"&gt;Ổ ghi&lt;/a&gt;&amp;nbsp;cung cấp khả năng lưu trữ chất lượng, bảo vệ h&amp;igrave;nh ảnh, video v&amp;agrave; dữ liệu tới 1000 năm trở l&amp;ecirc;n (hỗ trợ sản phẩm c&amp;oacute; ng&amp;agrave;y sản xuất từ 01/2017).&lt;/p&gt;
+&lt;p&gt;&amp;bull; Sử dụng được với hầu hết c&amp;aacute;c d&amp;ograve;ng m&amp;aacute;y t&amp;iacute;nh phổ biến hiện nay nhờ khả năng tương th&amp;iacute;ch với hệ điều h&amp;agrave;nh Windows v&amp;agrave; macOS.&lt;/p&gt;
+&lt;p&gt;&amp;bull; Cung cấp một c&amp;ocirc;ng cụ sao lưu, ghi đĩa v&amp;agrave; phục hồi dữ liệu tuyệt vời với dung lượng l&amp;ecirc;n tới 1 TB.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;M&amp;atilde; h&amp;oacute;a dữ liệu với chuẩn bảo mật cao nhất c&amp;oacute; chức năng kiểm so&amp;aacute;t, m&amp;atilde; ho&amp;aacute; mật khẩu v&amp;agrave; chức năng t&amp;ecirc;n tập tin gi&amp;uacute;p bạn y&amp;ecirc;n t&amp;acirc;m lưu trữ những th&amp;ocirc;ng tin quan trọng.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;Dễ d&amp;agrave;ng sử dụng, giao diện trực quan, th&amp;acirc;n thiện người d&amp;ugrave;ng.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;Miễn ph&amp;iacute; lưu trữ kh&amp;ocirc;ng giới hạn tr&amp;ecirc;n ASUS Webstorage trong 12 th&amp;aacute;ng.&lt;/p&gt;
+&lt;p&gt;&amp;bull;&amp;nbsp;Sản phẩm kh&amp;ocirc;ng k&amp;egrave;m theo đĩa DVD dung lượng 1 TB.&lt;/p&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table style="border-collapse: collapse; width: 71.1009%; height: 207.8px; border-width: 1px; margin-left: auto; margin-right: auto;" border="1"&gt;&lt;colgroup&gt;&lt;col style="width: 48.503%;"&gt;&lt;col style="width: 51.497%;"&gt;&lt;/colgroup&gt;
+&lt;tbody&gt;
+&lt;tr style="height: 28.6px;"&gt;
+&lt;td style="height: 28.6px; border-width: 1px;"&gt;Chuẩn kết nối&lt;/td&gt;
+&lt;td style="height: 28.6px; border-width: 1px; padding-left: 40px;"&gt;USB 2.0&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Dung lượng&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;1 TB&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Loại ổ cứng&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;1 TB&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Tốc độ ghi&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;DVD+R&amp;nbsp;: 8X, DVD-R&amp;nbsp;: 8X, DVD+RW&amp;nbsp;: 8X, DVD-RW&amp;nbsp;: 8X, DVD-ROM&amp;nbsp;: 8X, DVD+R(DL)&amp;nbsp;: 8X, DVD-R(DL)&amp;nbsp;: 8X, DVD-ROM(DL)&amp;nbsp;: 8X, DVD-RAM&amp;nbsp;: 5X, CD-R&amp;nbsp;: 24X, CD-RW&amp;nbsp;: 24X, CD-ROM&amp;nbsp;: 24X, DVD Video Playback&amp;nbsp;: 4X, VCD Playback&amp;nbsp;: 10X, Audio CD Playback&amp;nbsp;: 10X&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Tốc độ đọc&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;DVD+R&amp;nbsp;: 8X, DVD-R&amp;nbsp;: 8X, DVD+RW&amp;nbsp;: 8X, DVD-RW&amp;nbsp;: 6X, DVD+R(DL)&amp;nbsp;: 6X, DVD-R (DL)&amp;nbsp;: 6X, DVD-RAM&amp;nbsp;: 5X, CD-R&amp;nbsp;: 24X, CD-RW&amp;nbsp;: 16X&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Khối lượng:&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;H&amp;atilde;ng kh&amp;ocirc;ng c&amp;ocirc;ng bố&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;K&amp;iacute;ch thước&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;H&amp;atilde;ng kh&amp;ocirc;ng c&amp;ocirc;ng bố&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;Sản xuất tại:&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;Trung Quốc&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr style="height: 22.4px;"&gt;
+&lt;td style="border-width: 1px; height: 22.4px;"&gt;H&amp;atilde;ng:&lt;/td&gt;
+&lt;td style="border-width: 1px; padding-left: 40px; height: 22.4px;"&gt;Asus&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>o-ghi-asus-sdrw-08d2s-u-lite-external-usb-2-0</t>
+  </si>
+  <si>
+    <t>thiet-bi-luu-tru/asus-sdrw-08d2s-u-lite-externalusb-20.jpg</t>
+  </si>
+  <si>
+    <t>thiet-bi-luu-tru/asus-sdrw-08d2s-u-lite-externalusb-203.jpg|thiet-bi-luu-tru/asus-sdrw-08d2s-u-lite-externalusb-204.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ổ ghi ASUS SDRW-08D2S-U LITE External/USB 2.0 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2027,6 +2099,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2215,7 +2294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2358,6 +2437,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2403,7 +2515,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2439,6 +2551,27 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2795,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4797,7 +4930,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -4820,7 +4953,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -4843,7 +4976,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -4866,7 +4999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>5</v>
       </c>
@@ -4889,7 +5022,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>5</v>
       </c>
@@ -4912,7 +5045,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -4935,7 +5068,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -4958,7 +5091,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>6</v>
       </c>
@@ -4981,7 +5114,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>6</v>
       </c>
@@ -5002,6 +5135,35 @@
       </c>
       <c r="G89" s="5" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="19">
+        <v>7</v>
+      </c>
+      <c r="B90" s="18">
+        <v>3</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E90" s="18">
+        <v>820000</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
